--- a/data/trans_orig/IMC-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Provincia-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>IMC Adultos (tasa de respuesta: 96,87%)</t>
+          <t>Índice de Masa Corporal (IMC) medio de la población (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>26.22221892931872</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26.82895254651742</v>
+        <v>26.82895254651743</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>24.56767889537934</v>
@@ -678,13 +678,13 @@
         <v>26.06131801238311</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>25.49491890995405</v>
+        <v>25.49491890995404</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25.96755673187339</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>25.20134088699713</v>
+        <v>25.20134088699714</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>26.36456479636359</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>25.37177320899205</v>
+        <v>25.40196291228512</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>26.15347329991674</v>
+        <v>26.15732852245444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25.68183645942295</v>
+        <v>25.69683693822802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26.26193653622003</v>
+        <v>26.25435222325474</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>24.05768343982802</v>
+        <v>24.06233180733959</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>25.41173258870398</v>
+        <v>25.43809577542583</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>24.87156941706445</v>
+        <v>24.91984033230636</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>25.49583990658785</v>
+        <v>25.49762453361391</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>24.886746479902</v>
+        <v>24.88995432821172</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25.96041943499595</v>
+        <v>25.99081420750456</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25.45343900685797</v>
+        <v>25.45866606465366</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>26.04873809857329</v>
+        <v>26.06126529101006</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>26.29835288649816</v>
+        <v>26.36445674265624</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>27.13111004561088</v>
+        <v>27.16110556113686</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26.85344783403901</v>
+        <v>26.85271324077381</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27.39523580656209</v>
+        <v>27.37809357726832</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>25.09817678861997</v>
+        <v>25.09746865299032</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>26.6794648125397</v>
+        <v>26.76292328474768</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>26.17305879340662</v>
+        <v>26.15971364292317</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>26.4730971930221</v>
+        <v>26.45594267640222</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>25.55298082816009</v>
+        <v>25.54768309914264</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26.79172300943877</v>
+        <v>26.78091034967806</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26.31271187094838</v>
+        <v>26.2972186987943</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>26.79388487331738</v>
+        <v>26.77395207263112</v>
       </c>
     </row>
     <row r="7">
@@ -823,13 +823,13 @@
         <v>25.72014720022523</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26.22898916689891</v>
+        <v>26.22898916689892</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>26.33596016071908</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>26.42246686943717</v>
+        <v>26.42246686943718</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>25.39113166542904</v>
+        <v>25.38206844155401</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>25.69761653233315</v>
+        <v>25.70828806609332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25.88154796094219</v>
+        <v>25.88722459172314</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26.56302092169804</v>
+        <v>26.50153798728765</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>25.2799568659182</v>
+        <v>25.28326348098891</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>25.90408290216019</v>
+        <v>25.89716032124604</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>26.01578928106922</v>
+        <v>26.00606920066775</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>25.44473350127754</v>
+        <v>25.44793921259894</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>25.42590943517815</v>
+        <v>25.44926278642063</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25.93821080040883</v>
+        <v>25.92513515514856</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26.0614763771938</v>
+        <v>26.05136448840813</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>26.11382401894657</v>
+        <v>26.10057129891938</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>26.09654863124884</v>
+        <v>26.0909354196131</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>26.5099705219432</v>
+        <v>26.51926191228538</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26.6492238264703</v>
+        <v>26.63012992426702</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27.57561726041779</v>
+        <v>27.52558386237651</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>26.14413391699007</v>
+        <v>26.1541076019184</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.85061154266826</v>
+        <v>26.87091492645784</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>26.93149486244302</v>
+        <v>26.91810034917663</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>26.18268426452226</v>
+        <v>26.16739117973568</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>25.9871831850557</v>
+        <v>26.01164657316768</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26.55500333179087</v>
+        <v>26.54524378062278</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26.65210484872154</v>
+        <v>26.63749441541971</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>26.73310021768586</v>
+        <v>26.73486622517563</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>26.53670989642242</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27.40589811464846</v>
+        <v>27.40589811464845</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>25.53838609160872</v>
@@ -959,7 +959,7 @@
         <v>25.56934925383208</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26.61169198878257</v>
+        <v>26.61169198878256</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>26.23421108688636</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>25.25200429081342</v>
+        <v>25.25110603961921</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>26.54941749283888</v>
+        <v>26.5263012415729</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26.12545301228369</v>
+        <v>26.08222609289854</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26.88828072142712</v>
+        <v>26.91487302424104</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>25.04312252335042</v>
+        <v>25.04764424733312</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>25.65963721136318</v>
+        <v>25.73373131746297</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>25.3972286580112</v>
+        <v>25.45095546201742</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>26.18244537244992</v>
+        <v>26.1317635506101</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>25.25344957696853</v>
+        <v>25.25468415388239</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26.26711559912265</v>
+        <v>26.26038298408334</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25.86699570553842</v>
+        <v>25.88909308667358</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>26.66005591115748</v>
+        <v>26.66098422548541</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>25.99102856535499</v>
+        <v>26.00507231005742</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>27.374433471991</v>
+        <v>27.38166567185265</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26.98298640178035</v>
+        <v>26.98398077379336</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27.96730439522794</v>
+        <v>27.9611759765317</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>26.08935389834086</v>
+        <v>26.07516203808165</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>26.84862707977821</v>
+        <v>26.82319113088269</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>26.53678325224267</v>
+        <v>26.55949627298599</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>27.06126285009892</v>
+        <v>27.06444813165507</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>25.88050346589675</v>
+        <v>25.88254370898008</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26.96546882211223</v>
+        <v>26.98359419427732</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26.58061750584822</v>
+        <v>26.61278520830387</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>27.34095864364361</v>
+        <v>27.33809927462053</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>25.90243163774385</v>
+        <v>25.89346435469363</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>26.6500568841443</v>
+        <v>26.70635934767784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26.2718817894869</v>
+        <v>26.26798209280989</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26.1374245901458</v>
+        <v>26.16428041948796</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>24.73262243032974</v>
+        <v>24.75793377509396</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>25.73791911197159</v>
+        <v>25.77333652713522</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>25.41050275121357</v>
+        <v>25.43154215478061</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>25.06049593677265</v>
+        <v>25.05495466197906</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>25.45266071119184</v>
+        <v>25.43230287310312</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26.34230516678399</v>
+        <v>26.35090130843847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25.99158757780468</v>
+        <v>25.96279183973247</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>25.74407425557452</v>
+        <v>25.72008618972064</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>26.51651387279063</v>
+        <v>26.56450971774939</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>27.54562358583525</v>
+        <v>27.63528747112419</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>27.34242842329579</v>
+        <v>27.3093618946396</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>27.2077861886262</v>
+        <v>27.19346218810442</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>25.61480213815771</v>
+        <v>25.70598707295808</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>26.77808949252835</v>
+        <v>26.86304327891569</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>26.49642745939284</v>
+        <v>26.5472404851733</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>26.02185391496438</v>
+        <v>26.02413269049282</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>25.99423231840638</v>
+        <v>25.97006331127949</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>27.06999043506829</v>
+        <v>27.04904959052076</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>26.74890335618858</v>
+        <v>26.74338043944427</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>26.42131507935279</v>
+        <v>26.42782497723795</v>
       </c>
     </row>
     <row r="16">
@@ -1204,16 +1204,16 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>26.21220492458391</v>
+        <v>26.2122049245839</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>26.65193916701085</v>
+        <v>26.65193916701084</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>26.26796460813055</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25.93362220333181</v>
+        <v>25.9336222033318</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>26.07612369908973</v>
@@ -1225,7 +1225,7 @@
         <v>27.15405232084989</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>25.97876371445743</v>
+        <v>25.97876371445744</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>26.14390817618927</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>25.70696714224773</v>
+        <v>25.72571258342085</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>26.11531643423603</v>
+        <v>26.08535313111142</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25.76999340339979</v>
+        <v>25.72473250480848</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25.5456784047206</v>
+        <v>25.51890834364379</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>25.33712116714584</v>
+        <v>25.39896489238838</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>24.84540906916294</v>
+        <v>24.92110540525221</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>26.59225748542196</v>
+        <v>26.52649540573547</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>25.5931191057282</v>
+        <v>25.59458102258959</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>25.70385793450043</v>
+        <v>25.662481135627</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25.61799222804361</v>
+        <v>25.72170308142703</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26.31472610400468</v>
+        <v>26.2944953894491</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>25.67858289900417</v>
+        <v>25.68244575586097</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>26.7305044017015</v>
+        <v>26.72931264191051</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>27.26733359127856</v>
+        <v>27.30218056013585</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26.877433475847</v>
+        <v>26.84535577040227</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26.33852164027212</v>
+        <v>26.34103603627554</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>26.91565523085885</v>
+        <v>26.96429216197787</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>26.40294896263125</v>
+        <v>26.33293957961977</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>27.7847904092168</v>
+        <v>27.76903583843287</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>26.38317533315221</v>
+        <v>26.35072907415424</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>26.60598832484662</v>
+        <v>26.58043282827233</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26.59082673625658</v>
+        <v>26.65331277403174</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27.11711645461614</v>
+        <v>27.14957047796737</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>26.2462477883756</v>
+        <v>26.24730494588318</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>26.72272285648722</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27.1284709241753</v>
+        <v>27.12847092417529</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>25.47289069944191</v>
@@ -1358,7 +1358,7 @@
         <v>26.91456554918231</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>26.12020675617705</v>
+        <v>26.12020675617706</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25.65336988267212</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>25.58287195966949</v>
+        <v>25.6197764223457</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>27.04180915101091</v>
+        <v>27.03628691362523</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26.17648417573151</v>
+        <v>26.16324322250371</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26.65178746493018</v>
+        <v>26.70211620444219</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>24.98407405417187</v>
+        <v>24.97951197430723</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>26.35631320966275</v>
+        <v>26.29593361007367</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>25.47048095216496</v>
+        <v>25.53392658477042</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>25.21269210319168</v>
+        <v>25.18656505166037</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>25.39542767485335</v>
+        <v>25.37978966388913</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26.83888626807816</v>
+        <v>26.83097082980468</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26.03034863201833</v>
+        <v>26.02966665163525</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>26.06675094104704</v>
+        <v>26.05824218437209</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>26.42047655064112</v>
+        <v>26.45802702112036</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>28.09360055708989</v>
+        <v>28.05674161533057</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>27.31943881776779</v>
+        <v>27.29735995894773</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>27.70990416602163</v>
+        <v>27.69334051359526</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>26.05895483329865</v>
+        <v>25.94324581925332</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>27.61488774675594</v>
+        <v>27.61901749399123</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>26.75712886616529</v>
+        <v>26.77498801878703</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>26.1529500146064</v>
+        <v>26.11249100668012</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>26.03603561386358</v>
+        <v>26.03478646422706</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>27.6681159942069</v>
+        <v>27.69450482217683</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>26.85742975838191</v>
+        <v>26.84734603131117</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>26.76974841296929</v>
+        <v>26.77372984068589</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>25.014511682502</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>25.6453446578469</v>
+        <v>25.64534465784689</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>25.80338307256158</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>25.82471458067124</v>
+        <v>25.82020981472617</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>26.27192567913269</v>
+        <v>26.2843396586504</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25.79299694251003</v>
+        <v>25.82314732056727</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26.10065565239056</v>
+        <v>26.08564490497212</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>25.15105413948806</v>
+        <v>25.14179555095667</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.00108914111226</v>
+        <v>25.95888938381549</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>24.6324630893992</v>
+        <v>24.65244638864707</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>25.30894385485429</v>
+        <v>25.29774417289255</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>25.57566627754696</v>
+        <v>25.57257834546838</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>26.21434734349042</v>
+        <v>26.24654978131142</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25.28757319711502</v>
+        <v>25.29088844440787</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>25.77005815514538</v>
+        <v>25.7874280944606</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>26.37047447267666</v>
+        <v>26.3730520911151</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>26.88811289749371</v>
+        <v>26.87357940203203</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26.40749881078489</v>
+        <v>26.43183154560171</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26.84168126627753</v>
+        <v>26.85328797299591</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>25.92740235416361</v>
+        <v>25.93510680021139</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.7590487404558</v>
+        <v>26.76835417407068</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>25.43539328533197</v>
+        <v>25.45606209103299</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>25.99861880834834</v>
+        <v>26.0116422925541</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>26.05453036909936</v>
+        <v>26.04625724086341</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26.7449418677068</v>
+        <v>26.73562608181002</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>25.80843476847611</v>
+        <v>25.80281981858684</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>26.28207381976341</v>
+        <v>26.29052531188514</v>
       </c>
     </row>
     <row r="25">
@@ -1630,10 +1630,10 @@
         <v>26.0915210220773</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>26.35457261760326</v>
+        <v>26.35457261760327</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>26.07579329456506</v>
+        <v>26.07579329456505</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>25.67117038662774</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>26.00700258656328</v>
+        <v>25.99421012829526</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>26.17815624863664</v>
+        <v>26.15863007304306</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>26.49310056354546</v>
+        <v>26.51179561230979</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25.86300550964202</v>
+        <v>25.85724736058233</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>24.7564973467547</v>
+        <v>24.74841840574649</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>25.74334206402922</v>
+        <v>25.73101322456005</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>25.98154973234045</v>
+        <v>25.95058724739271</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>25.77182587471645</v>
+        <v>25.77188308607889</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>25.44751753930178</v>
+        <v>25.45020813345541</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26.04123803707958</v>
+        <v>25.98594816601124</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26.3375117152382</v>
+        <v>26.33931015075095</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>25.94211811352795</v>
+        <v>25.91562594987808</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>26.57220978397305</v>
+        <v>26.57191036347103</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>26.73089022061283</v>
+        <v>26.70817324956661</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>27.13885026768848</v>
+        <v>27.18706311148171</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>26.47456701345312</v>
+        <v>26.48870332789964</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>25.47927595762914</v>
+        <v>25.44531572577247</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>26.4735171325827</v>
+        <v>26.45963910271476</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>26.77788540111651</v>
+        <v>26.75407495910909</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>26.38041720394229</v>
+        <v>26.39051711443544</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>25.90690705069581</v>
+        <v>25.90716993055578</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>26.48974284990239</v>
+        <v>26.48241141433214</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>26.85213140535925</v>
+        <v>26.84550115197272</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>26.34464179875737</v>
+        <v>26.36407177307719</v>
       </c>
     </row>
     <row r="28">
@@ -1763,7 +1763,7 @@
         <v>25.37284301998116</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>26.26177045228867</v>
+        <v>26.26177045228866</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>25.98946834131781</v>
@@ -1772,13 +1772,13 @@
         <v>25.89950629550074</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>25.69216337234278</v>
+        <v>25.69216337234279</v>
       </c>
       <c r="L28" s="5" t="n">
         <v>26.45728594311132</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>26.22812326067492</v>
+        <v>26.22812326067493</v>
       </c>
       <c r="N28" s="5" t="n">
         <v>26.2622272909227</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>25.8825628801429</v>
+        <v>25.89392568810148</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>26.52511569875035</v>
+        <v>26.52598697177431</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26.32688246840794</v>
+        <v>26.31836488622022</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26.46663701982729</v>
+        <v>26.46961789433348</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>25.19688129933321</v>
+        <v>25.21477379017806</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>26.08136035953128</v>
+        <v>26.07436931625146</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>25.81697739790176</v>
+        <v>25.82539785615779</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>25.75635069690147</v>
+        <v>25.75323041960964</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>25.58523023227892</v>
+        <v>25.58957797962626</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26.33921336298155</v>
+        <v>26.33641201572372</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26.10760655152312</v>
+        <v>26.09964259045521</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>26.14483113447151</v>
+        <v>26.15568172178001</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>26.14279962000755</v>
+        <v>26.15624490840193</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>26.8085077059368</v>
+        <v>26.80853582761428</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>26.61857882951333</v>
+        <v>26.62693381875458</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26.79790316280507</v>
+        <v>26.80008008227193</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>25.53336641246815</v>
+        <v>25.53234440215237</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>26.43571543057899</v>
+        <v>26.44134253341147</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>26.18357958245808</v>
+        <v>26.18875251739891</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>26.0412450431986</v>
+        <v>26.04350734853763</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>25.80364230237548</v>
+        <v>25.80132165647278</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>26.56891639537256</v>
+        <v>26.56295305002418</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>26.34594453034822</v>
+        <v>26.34290775840676</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>26.36859782481284</v>
+        <v>26.37749246007916</v>
       </c>
     </row>
     <row r="31">
